--- a/项目文档/v1.0/v1.0需求列表清单.xlsx
+++ b/项目文档/v1.0/v1.0需求列表清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE42F18-EB67-40CF-8328-3DD95FF27EF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A26A2-9EC5-4826-8EFC-20113E7CC7B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>一句话需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>投票渠道信息中增加当前票数的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毅只田鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -534,6 +538,9 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
@@ -548,6 +555,9 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
@@ -561,6 +571,9 @@
       </c>
       <c r="C5" s="3">
         <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>

--- a/项目文档/v1.0/v1.0需求列表清单.xlsx
+++ b/项目文档/v1.0/v1.0需求列表清单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A26A2-9EC5-4826-8EFC-20113E7CC7B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386B4E6-7DD5-4E82-89E6-4741C3386243}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="1450" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>一句话需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>毅只田鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -497,7 +509,7 @@
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -527,8 +542,11 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -544,8 +562,11 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -561,8 +582,11 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -578,8 +602,11 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -592,8 +619,11 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -606,8 +636,11 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -620,8 +653,11 @@
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -635,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
         <v>15.5</v>
